--- a/tests/order-variable-settings/missing_platform_name.xlsx
+++ b/tests/order-variable-settings/missing_platform_name.xlsx
@@ -65,10 +65,10 @@
     <t>{order_id}</t>
   </si>
   <si>
-    <t>Platform Naame</t>
-  </si>
-  <si>
-    <t>Header Row</t>
+    <t>PlatformNaame</t>
+  </si>
+  <si>
+    <t>HeaderRow</t>
   </si>
   <si>
     <t>order_id</t>
